--- a/Org/Semester 2/Sprint_4.xlsx
+++ b/Org/Semester 2/Sprint_4.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\OneDrive\Studium\FHTechnikum\3. Semester\9_InnoLab\LocalRep\Org\Semester 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1548" windowWidth="38640" windowHeight="15720"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="25812" windowHeight="13908"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -26,8 +26,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>Sprint Review Protocol</t>
   </si>
@@ -124,35 +122,38 @@
     <t>Implementierung von UI Elementen, um zwischen den jeweiligen Schnittebenen (transversal, sattigal, coronal) zu wechseln (Akzeptanzkriterium: User kann in VR mit Handtracking Buttons drücken, die zwischen den Schnittebenen wechseln)</t>
   </si>
   <si>
-    <t>aus letztem Sprint forgeführt</t>
-  </si>
-  <si>
     <t>Handtracking Bug beheben (Akzeptanzkriterium: Hände in VR wieder sichtbar und mit aktuellen Funktionen interagierbar)</t>
   </si>
   <si>
     <t>Alternative Workflows für den Import einzelner Segmente untersuchen (Akzeptanzkriterium: es wurden verschiedene Möglichkeiten untersucht, um den Speicherverbrauch zu reduzieren)</t>
   </si>
   <si>
-    <t>Implementierung der in ReqID = 3 gefundenen Lösung</t>
-  </si>
-  <si>
     <t>Time estimate vermutlich ungenau, da noch nicht klar ist, welche Möglichkeit gewählt wird</t>
   </si>
   <si>
-    <t>Bug in letztem Sprint entdeckt</t>
-  </si>
-  <si>
     <t>Handtracking slider auf 2D Darstellung anwenden + adaptieren (Akzeptanzkriterium: Slider kann mit Handtracking verwendet werden und funktioniert für alle 3 Schnittebenen (transversal, sattigal, coronal)</t>
   </si>
   <si>
     <t>Testen der derzeitigen Implementierungen und Behebung von potentiellen Bugs</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>war nicht eingeplant aber wurde durch nicht reproduzierbare Probleme mit Git LFS hinzugefügt</t>
+  </si>
+  <si>
+    <t>Implementierung von Unity Version Control (Akzeptranzkriterium: Teammitglieder können pushen und pullen)</t>
+  </si>
+  <si>
+    <t>Implementierung der in ReqID = 2 gefundenen Lösung (siehe Zeile darüber) (Akzeptanzkriterium: Es wurde evaluiert, ob der alternative Workflow tatsächlich in Unity funktioniert)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,13 +200,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="6" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -434,7 +428,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -451,14 +445,47 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -466,6 +493,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -480,63 +534,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -868,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -885,28 +882,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5"/>
@@ -920,131 +917,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25">
+      <c r="B4" s="23"/>
+      <c r="C4" s="26">
         <v>4</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="27">
+      <c r="B5" s="25"/>
+      <c r="C5" s="28">
         <v>45790.708333333336</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="28">
+      <c r="B6" s="25"/>
+      <c r="C6" s="29">
         <v>16</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="30" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="32"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="21" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="21" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="21" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="39"/>
     </row>
     <row r="12" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="36"/>
+      <c r="C12" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="34"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -1073,139 +1070,161 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="32">
+      <c r="A16" s="13">
         <v>1</v>
       </c>
-      <c r="B16" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="36">
+      <c r="B16" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="13">
         <v>5</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="37">
+      <c r="D16" s="13">
+        <v>0</v>
+      </c>
+      <c r="E16" s="14">
         <f t="shared" ref="E16:E20" si="0">D16-C16</f>
         <v>-5</v>
       </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="35" t="s">
+      <c r="F16" s="10"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="13">
+        <v>2</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="13">
+        <v>7</v>
+      </c>
+      <c r="D17" s="13">
+        <v>4</v>
+      </c>
+      <c r="E17" s="14">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="32">
+      <c r="G17" s="11"/>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="13">
+        <v>3</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="13">
+        <v>10</v>
+      </c>
+      <c r="D18" s="13">
+        <v>11</v>
+      </c>
+      <c r="E18" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="13">
+        <v>4</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="13">
+        <v>5</v>
+      </c>
+      <c r="D19" s="13">
+        <v>3</v>
+      </c>
+      <c r="E19" s="14">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="13">
+        <v>5</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="13">
+        <v>10</v>
+      </c>
+      <c r="D20" s="13">
+        <v>6</v>
+      </c>
+      <c r="E20" s="14">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="13">
+        <v>6</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="13">
+        <v>7</v>
+      </c>
+      <c r="D21" s="13">
         <v>2</v>
       </c>
-      <c r="B17" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="36">
+      <c r="E21" s="14">
+        <f>D21-C21</f>
+        <v>-5</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="12">
         <v>7</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="37">
-        <f t="shared" si="0"/>
-        <v>-7</v>
-      </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="35"/>
-    </row>
-    <row r="18" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="32">
-        <v>3</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="36">
-        <v>10</v>
-      </c>
-      <c r="D18" s="36"/>
-      <c r="E18" s="37">
-        <f t="shared" si="0"/>
-        <v>-10</v>
-      </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="32">
-        <v>4</v>
-      </c>
-      <c r="B19" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="36">
-        <v>5</v>
-      </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="37">
-        <f t="shared" si="0"/>
-        <v>-5</v>
-      </c>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="32">
-        <v>5</v>
-      </c>
-      <c r="B20" s="38" t="s">
+      <c r="B22" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="12">
+        <v>0</v>
+      </c>
+      <c r="D22" s="12">
+        <v>11</v>
+      </c>
+      <c r="E22" s="16">
+        <f t="shared" ref="E22:E25" si="1">D22-C22</f>
+        <v>11</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="18"/>
+      <c r="H22" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="36">
-        <v>10</v>
-      </c>
-      <c r="D20" s="36"/>
-      <c r="E20" s="37">
-        <f t="shared" si="0"/>
-        <v>-10</v>
-      </c>
-      <c r="F20" s="33"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="36"/>
-    </row>
-    <row r="21" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="32">
-        <v>6</v>
-      </c>
-      <c r="B21" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="36">
-        <v>7</v>
-      </c>
-      <c r="D21" s="36"/>
-      <c r="E21" s="37">
-        <f>D21-C21</f>
-        <v>-7</v>
-      </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="35"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
-        <v>7</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="2">
-        <f t="shared" ref="E22:E25" si="1">D22-C22</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
@@ -1262,7 +1281,7 @@
       <c r="D26" s="6"/>
       <c r="E26" s="6">
         <f>SUM(E16:E25)</f>
-        <v>-44</v>
+        <v>-7</v>
       </c>
       <c r="F26" s="6">
         <f>COUNT(F16:F25)</f>
@@ -1280,8 +1299,8 @@
         <v>44</v>
       </c>
       <c r="D27" s="2">
-        <f>SUM(D16:D21)</f>
-        <v>0</v>
+        <f>SUM(D16:D22)</f>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1297,6 +1316,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="C11:G11"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C10:G10"/>
@@ -1311,12 +1336,6 @@
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="C11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Org/Semester 2/Sprint_4.xlsx
+++ b/Org/Semester 2/Sprint_4.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\OneDrive\Studium\FHTechnikum\3. Semester\9_InnoLab\LocalRep\Org\Semester 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="25812" windowHeight="13908"/>
+    <workbookView xWindow="28680" yWindow="-1548" windowWidth="38640" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Sprint Review Protocol</t>
   </si>
@@ -122,38 +124,35 @@
     <t>Implementierung von UI Elementen, um zwischen den jeweiligen Schnittebenen (transversal, sattigal, coronal) zu wechseln (Akzeptanzkriterium: User kann in VR mit Handtracking Buttons drücken, die zwischen den Schnittebenen wechseln)</t>
   </si>
   <si>
+    <t>aus letztem Sprint forgeführt</t>
+  </si>
+  <si>
     <t>Handtracking Bug beheben (Akzeptanzkriterium: Hände in VR wieder sichtbar und mit aktuellen Funktionen interagierbar)</t>
   </si>
   <si>
     <t>Alternative Workflows für den Import einzelner Segmente untersuchen (Akzeptanzkriterium: es wurden verschiedene Möglichkeiten untersucht, um den Speicherverbrauch zu reduzieren)</t>
   </si>
   <si>
+    <t>Implementierung der in ReqID = 3 gefundenen Lösung</t>
+  </si>
+  <si>
     <t>Time estimate vermutlich ungenau, da noch nicht klar ist, welche Möglichkeit gewählt wird</t>
   </si>
   <si>
+    <t>Bug in letztem Sprint entdeckt</t>
+  </si>
+  <si>
     <t>Handtracking slider auf 2D Darstellung anwenden + adaptieren (Akzeptanzkriterium: Slider kann mit Handtracking verwendet werden und funktioniert für alle 3 Schnittebenen (transversal, sattigal, coronal)</t>
   </si>
   <si>
     <t>Testen der derzeitigen Implementierungen und Behebung von potentiellen Bugs</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>war nicht eingeplant aber wurde durch nicht reproduzierbare Probleme mit Git LFS hinzugefügt</t>
-  </si>
-  <si>
-    <t>Implementierung von Unity Version Control (Akzeptranzkriterium: Teammitglieder können pushen und pullen)</t>
-  </si>
-  <si>
-    <t>Implementierung der in ReqID = 2 gefundenen Lösung (siehe Zeile darüber) (Akzeptanzkriterium: Es wurde evaluiert, ob der alternative Workflow tatsächlich in Unity funktioniert)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +199,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="6" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -428,7 +434,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -445,6 +451,75 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -462,78 +537,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -865,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -882,28 +885,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5"/>
@@ -917,131 +920,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="26">
+      <c r="B4" s="24"/>
+      <c r="C4" s="25">
         <v>4</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="28">
+      <c r="B5" s="14"/>
+      <c r="C5" s="27">
         <v>45790.708333333336</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="29">
+      <c r="B6" s="14"/>
+      <c r="C6" s="28">
         <v>16</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="31" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="32"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="31"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="20" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="20" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="20" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="39"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
     </row>
     <row r="12" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="33" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="34"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -1070,161 +1073,139 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
+      <c r="A16" s="32">
         <v>1</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="13">
+      <c r="B16" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="36">
         <v>5</v>
       </c>
-      <c r="D16" s="13">
-        <v>0</v>
-      </c>
-      <c r="E16" s="14">
+      <c r="D16" s="36"/>
+      <c r="E16" s="37">
         <f t="shared" ref="E16:E20" si="0">D16-C16</f>
         <v>-5</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="35" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="13">
+      <c r="A17" s="32">
         <v>2</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="13">
+      <c r="B17" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="36">
         <v>7</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="36"/>
+      <c r="E17" s="37">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="35"/>
+    </row>
+    <row r="18" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="32">
+        <v>3</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="36">
+        <v>10</v>
+      </c>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="F18" s="33"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="32">
         <v>4</v>
       </c>
-      <c r="E17" s="14">
+      <c r="B19" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="36">
+        <v>5</v>
+      </c>
+      <c r="D19" s="36"/>
+      <c r="E19" s="37">
         <f t="shared" si="0"/>
-        <v>-3</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="13">
-        <v>3</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="13">
+        <v>-5</v>
+      </c>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="32">
+        <v>5</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="36">
         <v>10</v>
       </c>
-      <c r="D18" s="13">
-        <v>11</v>
-      </c>
-      <c r="E18" s="14">
+      <c r="D20" s="36"/>
+      <c r="E20" s="37">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="13">
-        <v>4</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="13">
-        <v>5</v>
-      </c>
-      <c r="D19" s="13">
-        <v>3</v>
-      </c>
-      <c r="E19" s="14">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="13">
-        <v>5</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="13">
-        <v>10</v>
-      </c>
-      <c r="D20" s="13">
+        <v>-10</v>
+      </c>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="36"/>
+    </row>
+    <row r="21" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="32">
         <v>6</v>
       </c>
-      <c r="E20" s="14">
-        <f t="shared" si="0"/>
-        <v>-4</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="13"/>
-    </row>
-    <row r="21" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="13">
-        <v>6</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="13">
+      <c r="B21" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="36">
         <v>7</v>
       </c>
-      <c r="D21" s="13">
-        <v>2</v>
-      </c>
-      <c r="E21" s="14">
+      <c r="D21" s="36"/>
+      <c r="E21" s="37">
         <f>D21-C21</f>
-        <v>-5</v>
-      </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="12">
+        <v>-7</v>
+      </c>
+      <c r="F21" s="33"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="35"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
         <v>7</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="12">
+      <c r="B22" s="10"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="2">
+        <f t="shared" ref="E22:E25" si="1">D22-C22</f>
         <v>0</v>
       </c>
-      <c r="D22" s="12">
-        <v>11</v>
-      </c>
-      <c r="E22" s="16">
-        <f t="shared" ref="E22:E25" si="1">D22-C22</f>
-        <v>11</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="18"/>
-      <c r="H22" s="12" t="s">
-        <v>35</v>
-      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
@@ -1281,7 +1262,7 @@
       <c r="D26" s="6"/>
       <c r="E26" s="6">
         <f>SUM(E16:E25)</f>
-        <v>-7</v>
+        <v>-44</v>
       </c>
       <c r="F26" s="6">
         <f>COUNT(F16:F25)</f>
@@ -1299,8 +1280,8 @@
         <v>44</v>
       </c>
       <c r="D27" s="2">
-        <f>SUM(D16:D22)</f>
-        <v>37</v>
+        <f>SUM(D16:D21)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1316,12 +1297,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="C11:G11"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C10:G10"/>
@@ -1336,6 +1311,12 @@
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="C11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
